--- a/public/files/template_delivery_schedule.xlsx
+++ b/public/files/template_delivery_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bagus/Documents/Kerja/WH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5161D95E-0E5B-A549-AE9D-25F2BD74D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C644D94-1AB2-483B-8E66-C7149199C8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16380" xr2:uid="{9FC913E0-748E-4147-937F-C003D6D432D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FC913E0-748E-4147-937F-C003D6D432D2}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>supplierCode</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>truckStation</t>
+  </si>
+  <si>
+    <t>rit</t>
+  </si>
+  <si>
+    <t>plantCode</t>
   </si>
 </sst>
 </file>
@@ -422,22 +428,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE1067B-B86D-BB4D-9291-1098FDC2DA8D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,6 +458,12 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
